--- a/apps/fcft/Facility CO2e Flow Tool - Input Sheet.xlsx
+++ b/apps/fcft/Facility CO2e Flow Tool - Input Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovais\Box\UCD-LBL Decarbonization Group\IAC Decarbonization\github repo\apps\fcft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovais\git\IAC-Decarb-Tools\apps\fcft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04895568-23DA-471B-B5A4-91DC320569AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA09AD-C9B7-4B07-A8DB-E5A36C4D5C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1032" windowWidth="30936" windowHeight="18696" tabRatio="686" activeTab="1" xr2:uid="{ECAE08BA-56FE-4434-8B68-666D0954C98F}"/>
   </bookViews>
@@ -964,13 +964,7 @@
     <t>Emissions Breakdown Table</t>
   </si>
   <si>
-    <t>S. No.</t>
-  </si>
-  <si>
     <t>Enter Custom Emissions Factor (MT CO2e/kWh)</t>
-  </si>
-  <si>
-    <t>Use Publically Available Emission Factor (MT CO2e/kWh)</t>
   </si>
   <si>
     <t>Pumps</t>
@@ -1048,6 +1042,12 @@
   <si>
     <t>Boiler</t>
   </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Select State and Grid Emissions Factor</t>
+  </si>
 </sst>
 </file>
 
@@ -1060,7 +1060,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,6 +1225,13 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1645,7 +1652,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1757,6 +1764,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2620,7 +2628,7 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{788B7E56-EC00-436D-95A1-B3734C90FAE2}" name="S. No." dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{788B7E56-EC00-436D-95A1-B3734C90FAE2}" name="No." dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(D18&lt;&gt;"",COUNTA($D$18:D18),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{75D8681A-E4B4-4234-B258-971E29CC07A7}" name="Emission Source" dataDxfId="9" dataCellStyle="Comma"/>
@@ -2650,9 +2658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2690,7 +2698,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2796,7 +2804,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2938,7 +2946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2959,38 +2967,38 @@
   </cols>
   <sheetData>
     <row r="12" spans="4:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
+      <c r="D12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="4:17" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="4:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D14" s="9"/>
@@ -3012,184 +3020,184 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="4:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:21" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="53"/>
     </row>
     <row r="25" spans="2:21" ht="115" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="55"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="56"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3212,7 +3220,7 @@
   <dimension ref="A1:AE804"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3323,10 +3331,10 @@
       <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -3355,16 +3363,16 @@
       <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="75"/>
+      <c r="C6" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="76"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3392,10 +3400,10 @@
       <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:30" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="8"/>
@@ -3425,7 +3433,7 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="20"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -3457,14 +3465,14 @@
       <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="68"/>
+      <c r="C9" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="69"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -3492,8 +3500,8 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="65"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="18" t="s">
         <v>77</v>
       </c>
@@ -3527,15 +3535,15 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:30" ht="43.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="65"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="8" t="str">
+        <v>132</v>
+      </c>
+      <c r="E11" s="47" t="str">
         <f>IF(C11="AK","NREL Forecast is Not Available for This Territory",IF(C11="DC","NREL Forecast is Not Available for This Territory",IF(C11="HI","NREL Forecast is Not Available for This Territory",IF(C11="PR","NREL Forecast is Not Available for This Territory",""))))</f>
         <v/>
       </c>
@@ -3564,12 +3572,12 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -3597,8 +3605,8 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:30" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="66"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="19" t="s">
         <v>85</v>
       </c>
@@ -3662,18 +3670,18 @@
       <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -3694,18 +3702,18 @@
       <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -3727,7 +3735,7 @@
     </row>
     <row r="17" spans="3:31" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="46" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>93</v>
@@ -3876,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>95</v>
@@ -4047,7 +4055,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>95</v>
@@ -24728,7 +24736,7 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24743,15 +24751,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
       <c r="J1" s="24">
         <f>VLOOKUP('Emissions Calculator'!C11,'Grid Emissions Database - AER'!B4:K55,MATCH('Emissions Calculator'!D11,'Grid Emissions Database - AER'!B3:K3,0),0)/1000000</f>
         <v>3.5896307720221398E-4</v>
@@ -24762,13 +24770,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="43"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="45" t="s">
@@ -24798,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="44" t="str">
-        <f>'Emissions Calculator'!D11</f>
+        <f>IF(ISBLANK('Emissions Calculator'!D7),'Emissions Calculator'!D11,"Custom")</f>
         <v>2022 eGRID</v>
       </c>
       <c r="D4" s="32">
@@ -25100,22 +25108,22 @@
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -25151,64 +25159,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
